--- a/DailyBibleverses.xlsx
+++ b/DailyBibleverses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Agape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\latest lovey agape - Copy\agape-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC256D8-B177-428F-ADB6-A5F86324FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1E883-0874-42B8-8941-D5A2CF841A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81CB52D9-4E9C-4138-8F80-F25C7BA19DB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{81CB52D9-4E9C-4138-8F80-F25C7BA19DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>reference</t>
   </si>
@@ -46,167 +46,77 @@
     <t>date</t>
   </si>
   <si>
-    <t>Romans 15:13</t>
-  </si>
-  <si>
-    <t>"May the God of hope fill you with all joy and peace in believing, so that by the power of the Holy Spirit you may abound in hope."</t>
-  </si>
-  <si>
     <t>reflection</t>
   </si>
   <si>
-    <t>This verse emphasizes the importance of hope and the joy and peace that comes from faith in God. It encourages believers to rely on the Holy Spirit's strength to foster a hopeful outlook in their lives​</t>
-  </si>
-  <si>
-    <t>Isaiah 41:10</t>
-  </si>
-  <si>
-    <t>God's promise of His presence dispels fear and anxiety. We are reminded that we are never alone, which brings comfort and courage during challenging times.</t>
-  </si>
-  <si>
-    <t>This verse depicts God as a safe haven and source of strength. In times of trouble, we can seek refuge in Him, finding solace and support.</t>
-  </si>
-  <si>
-    <t>"God is our refuge and strength..."</t>
-  </si>
-  <si>
-    <t>Psalm 46:1</t>
-  </si>
-  <si>
-    <t>1 Peter 5:7</t>
-  </si>
-  <si>
-    <t>"Cast all your anxiety on him because he cares for you."</t>
-  </si>
-  <si>
-    <t>This verse invites us to surrender our worries to God, highlighting His deep care for us. It encourages us to trust Him with our burdens.</t>
-  </si>
-  <si>
-    <t>John 16:33</t>
-  </si>
-  <si>
-    <t>"In this world you will have trouble. But take heart! I have overcome the world."</t>
-  </si>
-  <si>
-    <t>Jesus acknowledges the reality of life's struggles while also reminding us of His victory. This offers hope and assurance in our trials.</t>
+    <t>Isaiah 40:31</t>
+  </si>
+  <si>
+    <t>Philippians 4:13</t>
+  </si>
+  <si>
+    <t>Psalm 119:105</t>
+  </si>
+  <si>
+    <t>Your word is a lamp to my feet and a light to my path.</t>
+  </si>
+  <si>
+    <t>God’s word lights up our journey, helping us navigate life’s uncertainties with clarity and confidence.</t>
+  </si>
+  <si>
+    <t>Joshua 1:9</t>
+  </si>
+  <si>
+    <t>Be strong and courageous. Do not be afraid; do not be discouraged, for the Lord your God will be with you wherever you go.</t>
+  </si>
+  <si>
+    <t>This verse reminds us that God’s constant presence strengthens and encourages us through every challenge.</t>
+  </si>
+  <si>
+    <t>But those who hope in the Lord will renew their strength. They will soar on wings like eagles; they will run and not grow weary.</t>
+  </si>
+  <si>
+    <t>Trusting in God not only refreshes our soul but gives us strength to endure trials.</t>
   </si>
   <si>
     <t>Proverbs 3:5-6</t>
   </si>
   <si>
-    <t>"Trust in the LORD with all your heart..."</t>
-  </si>
-  <si>
-    <t>Trusting God fully leads to His guidance in our lives. This verse emphasizes the importance of faith in navigating life's decisions.</t>
-  </si>
-  <si>
-    <t>Psalm 119:105</t>
-  </si>
-  <si>
-    <t>"Your word is a lamp to my feet and a light for my path."</t>
-  </si>
-  <si>
-    <t>God’s Word provides guidance in our lives. This verse illustrates the importance of scripture in helping us navigate through uncertainty and challenges.</t>
-  </si>
-  <si>
-    <t>1 Corinthians 10:13</t>
-  </si>
-  <si>
-    <t>"No temptation has overtaken you that is not common to man..."</t>
-  </si>
-  <si>
-    <t>This verse reassures us that we are not alone in our struggles. God provides a way out of temptation, highlighting His faithfulness in our trials.</t>
-  </si>
-  <si>
-    <t>Hebrews 12:1</t>
-  </si>
-  <si>
-    <t>We are encouraged to persevere in our faith journey. This verse reminds us of the support from fellow believers and the importance of focusing on Christ.</t>
-  </si>
-  <si>
-    <t>Isaiah 26:3</t>
-  </si>
-  <si>
-    <t>"You will keep in perfect peace those whose minds are steadfast..."</t>
-  </si>
-  <si>
-    <t>"Therefore, since we are surrounded by such a great cloud of witnesses..."</t>
-  </si>
-  <si>
-    <t>Trusting God brings peace in tumultuous times. This verse highlights the importance of focusing our thoughts on Him to maintain inner tranquility.</t>
+    <t>Trust in the Lord with all your heart and lean not on your own understanding; in all your ways submit to him, and he will make your paths straight.</t>
+  </si>
+  <si>
+    <t>Trusting God fully opens doors to clarity and divine guidance in life.</t>
+  </si>
+  <si>
+    <t>I can do all things through Christ who gives me strength.</t>
+  </si>
+  <si>
+    <t>Through Christ, even what seems impossible becomes achievable.</t>
   </si>
   <si>
     <t>Matthew 11:28</t>
   </si>
   <si>
-    <t>"Come to me, all you who are weary and burdened, and I will give you rest."</t>
-  </si>
-  <si>
-    <t>Jesus invites us to seek Him for rest and rejuvenation. This verse emphasizes the comfort found in His presence amidst life’s struggles.</t>
-  </si>
-  <si>
-    <t>Proverbs 18:10</t>
-  </si>
-  <si>
-    <t>"The name of the Lord is a strong tower; the righteous run to it and are safe."</t>
-  </si>
-  <si>
-    <t>God is our refuge and strength. This verse encourages us to seek His protection and safety in times of trouble.</t>
-  </si>
-  <si>
-    <t>2 Corinthians 5:7</t>
-  </si>
-  <si>
-    <t>"For we walk by faith, not by sight."</t>
-  </si>
-  <si>
-    <t>This verse reminds us to trust in God’s plans and promises, even when circumstances are uncertain. Faith is key to navigating life’s challenges.</t>
-  </si>
-  <si>
-    <t>1 John 4:19</t>
-  </si>
-  <si>
-    <t>"We love because he first loved us."</t>
-  </si>
-  <si>
-    <t>Our ability to love others stems from God’s love for us. This verse encourages us to reflect that love in our relationships.</t>
-  </si>
-  <si>
-    <t>Psalm 37:4</t>
-  </si>
-  <si>
-    <t>"Delight yourself in the Lord, and he will give you the desires of your heart."</t>
-  </si>
-  <si>
-    <t>Prioritizing our relationship with God aligns our desires with His will. This verse encourages us to find joy in Him.</t>
-  </si>
-  <si>
-    <t>Philippians 1:3</t>
-  </si>
-  <si>
-    <t>"I thank my God every time I remember you."</t>
-  </si>
-  <si>
-    <t>Gratitude for others is essential in the Christian community. This verse reminds us of the importance of appreciating those who impact our lives positively.</t>
-  </si>
-  <si>
-    <t>Ephesians 6:10</t>
-  </si>
-  <si>
-    <t>"Finally, be strong in the Lord and in his mighty power."</t>
-  </si>
-  <si>
-    <t>This verse encourages spiritual strength and reliance on God's power rather than our own, preparing us for challenges ahead.</t>
-  </si>
-  <si>
-    <t>"So do not fear, for I am with you..."</t>
+    <t>Come to me, all you who are weary and burdened, and I will give you rest.</t>
+  </si>
+  <si>
+    <t>Rest and peace are found when we lay our burdens before God.</t>
+  </si>
+  <si>
+    <t>Romans 8:28</t>
+  </si>
+  <si>
+    <t>And we know that in all things God works for the good of those who love him, who have been called according to his purpose.</t>
+  </si>
+  <si>
+    <t>Trust that even hardships bring God’s good purpose into your life.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +131,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -251,14 +178,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,21 +499,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292A46EA-A063-4BF2-9337-8531A54884F9}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="116.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="116.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,248 +524,212 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45664</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45665</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45666</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45626</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45627</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45628</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45629</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>45630</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+        <v>45667</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="1">
-        <v>45631</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+        <v>45668</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="1">
-        <v>45632</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+        <v>45669</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45633</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45634</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45635</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45636</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45637</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45638</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45639</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45640</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45641</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45642</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>